--- a/output/1Y_P61_KFSDIV.xlsx
+++ b/output/1Y_P61_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.4338</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E3" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="F3" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="H3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0403</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>12.9657</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E4" s="1">
-        <v>1518.7684</v>
+        <v>1515.7308</v>
       </c>
       <c r="F4" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="H4" s="1">
-        <v>19691.8956</v>
+        <v>19613.2535</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19691.8956</v>
+        <v>19613.2535</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1686</v>
+        <v>13.195</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9790.918100000001</v>
+        <v>-9791.336600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0348</v>
+        <v>-0.0367</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.3568</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E5" s="1">
-        <v>2290.0341</v>
+        <v>2285.453</v>
       </c>
       <c r="F5" s="1">
-        <v>750.4216</v>
+        <v>748.9155</v>
       </c>
       <c r="H5" s="1">
-        <v>30587.528</v>
+        <v>30465.3172</v>
       </c>
       <c r="I5" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="J5" s="1">
-        <v>30796.6099</v>
+        <v>30673.9806</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.1002</v>
+        <v>13.1265</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10023.2313</v>
+        <v>-10023.1848</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0372</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.2487</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E6" s="1">
-        <v>3040.4557</v>
+        <v>3034.3685</v>
       </c>
       <c r="F6" s="1">
-        <v>756.5445</v>
+        <v>755.0308</v>
       </c>
       <c r="H6" s="1">
-        <v>40282.086</v>
+        <v>40121.0267</v>
       </c>
       <c r="I6" s="1">
-        <v>185.8506</v>
+        <v>185.4786</v>
       </c>
       <c r="J6" s="1">
-        <v>40467.9366</v>
+        <v>40306.5052</v>
       </c>
       <c r="K6" s="1">
-        <v>40023.2313</v>
+        <v>40023.1848</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1636</v>
+        <v>13.19</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10023.2313</v>
+        <v>-10023.1848</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0081</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.3991</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E7" s="1">
-        <v>3797.0003</v>
+        <v>3789.3993</v>
       </c>
       <c r="F7" s="1">
-        <v>748.0526</v>
+        <v>746.5559</v>
       </c>
       <c r="H7" s="1">
-        <v>50876.3862</v>
+        <v>50672.9837</v>
       </c>
       <c r="I7" s="1">
-        <v>162.6193</v>
+        <v>162.2938</v>
       </c>
       <c r="J7" s="1">
-        <v>51039.0055</v>
+        <v>50835.2774</v>
       </c>
       <c r="K7" s="1">
-        <v>50046.4626</v>
+        <v>50046.3696</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1805</v>
+        <v>13.2069</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1094.5641</v>
+        <v>1092.3726</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8928.667299999999</v>
+        <v>-8930.8122</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0113</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.5985</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E8" s="1">
-        <v>4545.0528</v>
+        <v>4535.9552</v>
       </c>
       <c r="F8" s="1">
-        <v>750.4989</v>
+        <v>748.9705</v>
       </c>
       <c r="H8" s="1">
-        <v>61805.9011</v>
+        <v>61558.8082</v>
       </c>
       <c r="I8" s="1">
-        <v>1233.952</v>
+        <v>1231.4816</v>
       </c>
       <c r="J8" s="1">
-        <v>63039.8531</v>
+        <v>62790.2898</v>
       </c>
       <c r="K8" s="1">
-        <v>60069.694</v>
+        <v>60069.5545</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2165</v>
+        <v>13.243</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10205.6587</v>
+        <v>-10205.2469</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0328</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.6955</v>
       </c>
       <c r="C9" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D9" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E9" s="1">
-        <v>5295.5517</v>
+        <v>5284.9256</v>
       </c>
       <c r="F9" s="1">
-        <v>745.1834</v>
+        <v>743.6655</v>
       </c>
       <c r="H9" s="1">
-        <v>72525.2282</v>
+        <v>72234.8919</v>
       </c>
       <c r="I9" s="1">
-        <v>1028.2933</v>
+        <v>1026.2346</v>
       </c>
       <c r="J9" s="1">
-        <v>73553.52159999999</v>
+        <v>73261.1266</v>
       </c>
       <c r="K9" s="1">
-        <v>70275.3526</v>
+        <v>70274.8014</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2706</v>
+        <v>13.2972</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10205.6587</v>
+        <v>-10205.2469</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.3398</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E10" s="1">
-        <v>6040.7351</v>
+        <v>6028.5911</v>
       </c>
       <c r="F10" s="1">
-        <v>765.0533</v>
+        <v>763.4943</v>
       </c>
       <c r="H10" s="1">
-        <v>80582.1974</v>
+        <v>80259.2362</v>
       </c>
       <c r="I10" s="1">
-        <v>822.6347</v>
+        <v>820.9877</v>
       </c>
       <c r="J10" s="1">
-        <v>81404.8321</v>
+        <v>81080.2239</v>
       </c>
       <c r="K10" s="1">
-        <v>80481.0113</v>
+        <v>80480.04829999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.323</v>
+        <v>13.3497</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1429.799</v>
+        <v>1426.9299</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8775.859700000001</v>
+        <v>-8778.316999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0257</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.8469</v>
       </c>
       <c r="C11" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D11" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E11" s="1">
-        <v>6805.7884</v>
+        <v>6792.0854</v>
       </c>
       <c r="F11" s="1">
-        <v>831.5047</v>
+        <v>829.7384</v>
       </c>
       <c r="H11" s="1">
-        <v>87433.283</v>
+        <v>87082.6857</v>
       </c>
       <c r="I11" s="1">
-        <v>2046.775</v>
+        <v>2042.6707</v>
       </c>
       <c r="J11" s="1">
-        <v>89480.058</v>
+        <v>89125.3564</v>
       </c>
       <c r="K11" s="1">
-        <v>90686.67</v>
+        <v>90685.2953</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3249</v>
+        <v>13.3516</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10682.2583</v>
+        <v>-10680.8902</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0211</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.129</v>
       </c>
       <c r="C12" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D12" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E12" s="1">
-        <v>7637.2931</v>
+        <v>7621.8238</v>
       </c>
       <c r="F12" s="1">
-        <v>813.6384</v>
+        <v>811.9078</v>
       </c>
       <c r="H12" s="1">
-        <v>100270.0217</v>
+        <v>99866.47070000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1364.5166</v>
+        <v>1361.7805</v>
       </c>
       <c r="J12" s="1">
-        <v>101634.5384</v>
+        <v>101228.2512</v>
       </c>
       <c r="K12" s="1">
-        <v>101368.9283</v>
+        <v>101366.1855</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2729</v>
+        <v>13.2995</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10682.2583</v>
+        <v>-10680.8902</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0217</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>12.716</v>
       </c>
       <c r="C13" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D13" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E13" s="1">
-        <v>8450.931500000001</v>
+        <v>8433.731599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>840.0644</v>
+        <v>838.2757</v>
       </c>
       <c r="H13" s="1">
-        <v>107462.0453</v>
+        <v>107029.1139</v>
       </c>
       <c r="I13" s="1">
-        <v>682.2583</v>
+        <v>680.8902</v>
       </c>
       <c r="J13" s="1">
-        <v>108144.3036</v>
+        <v>107710.0041</v>
       </c>
       <c r="K13" s="1">
-        <v>112051.1866</v>
+        <v>112047.0757</v>
       </c>
       <c r="L13" s="1">
-        <v>13.259</v>
+        <v>13.2856</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2062.0691</v>
+        <v>2057.8924</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8620.189200000001</v>
+        <v>-8622.997799999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0313</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.4613</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E14" s="1">
-        <v>9290.9959</v>
+        <v>9272.007299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9290.9959</v>
+        <v>-9272.007299999999</v>
       </c>
       <c r="H14" s="1">
-        <v>115777.887</v>
+        <v>115310.3916</v>
       </c>
       <c r="I14" s="1">
-        <v>2062.0691</v>
+        <v>2057.8924</v>
       </c>
       <c r="J14" s="1">
-        <v>117839.9561</v>
+        <v>117368.284</v>
       </c>
       <c r="K14" s="1">
-        <v>122733.4449</v>
+        <v>122727.966</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2099</v>
+        <v>13.2364</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115777.887</v>
+        <v>115310.3916</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0026</v>
+        <v>-0.0029</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.4338</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E3" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="F3" s="1">
-        <v>714.4046</v>
+        <v>718.9417999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9597.168900000001</v>
+        <v>-9677.459500000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0403</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>12.9657</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E4" s="1">
-        <v>1488.782</v>
+        <v>1491.7692</v>
       </c>
       <c r="F4" s="1">
-        <v>802.3347</v>
+        <v>794.5489</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19303.1011</v>
+        <v>19303.1946</v>
       </c>
       <c r="I4" s="1">
-        <v>402.8311</v>
+        <v>322.5405</v>
       </c>
       <c r="J4" s="1">
-        <v>19705.9323</v>
+        <v>19625.7351</v>
       </c>
       <c r="K4" s="1">
-        <v>19597.1689</v>
+        <v>19677.4595</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1632</v>
+        <v>13.1907</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10193.7492</v>
+        <v>-10113.8771</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0361</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.3568</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E5" s="1">
-        <v>2291.1167</v>
+        <v>2286.318</v>
       </c>
       <c r="F5" s="1">
-        <v>703.6125</v>
+        <v>714.4097</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30601.988</v>
+        <v>30476.8479</v>
       </c>
       <c r="I5" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="J5" s="1">
-        <v>30811.0699</v>
+        <v>30685.5113</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.0941</v>
+        <v>13.1215</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9398.012000000001</v>
+        <v>-9561.373</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0372</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.2487</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E6" s="1">
-        <v>2994.7293</v>
+        <v>3000.7277</v>
       </c>
       <c r="F6" s="1">
-        <v>779.2259</v>
+        <v>780.7913</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39676.2698</v>
+        <v>39676.2215</v>
       </c>
       <c r="I6" s="1">
-        <v>811.0699</v>
+        <v>647.2904</v>
       </c>
       <c r="J6" s="1">
-        <v>40487.3397</v>
+        <v>40323.5119</v>
       </c>
       <c r="K6" s="1">
-        <v>39398.012</v>
+        <v>39561.373</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1558</v>
+        <v>13.1839</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10323.7302</v>
+        <v>-10365.1605</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.3991</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E7" s="1">
-        <v>3773.9552</v>
+        <v>3781.519</v>
       </c>
       <c r="F7" s="1">
-        <v>703.9575</v>
+        <v>705.3681</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50567.6029</v>
+        <v>50567.606</v>
       </c>
       <c r="I7" s="1">
-        <v>487.3397</v>
+        <v>282.1299</v>
       </c>
       <c r="J7" s="1">
-        <v>51054.9425</v>
+        <v>50849.7359</v>
       </c>
       <c r="K7" s="1">
-        <v>49721.7422</v>
+        <v>49926.5335</v>
       </c>
       <c r="L7" s="1">
-        <v>13.175</v>
+        <v>13.2028</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1078.1025</v>
+        <v>1080.262</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8354.294599999999</v>
+        <v>-8389.9398</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0112</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.5985</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E8" s="1">
-        <v>4477.9127</v>
+        <v>4486.8871</v>
       </c>
       <c r="F8" s="1">
-        <v>669.7139</v>
+        <v>671.0565</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60892.8958</v>
+        <v>60892.8905</v>
       </c>
       <c r="I8" s="1">
-        <v>2133.0451</v>
+        <v>1892.1902</v>
       </c>
       <c r="J8" s="1">
-        <v>63025.9409</v>
+        <v>62785.0807</v>
       </c>
       <c r="K8" s="1">
-        <v>59154.1394</v>
+        <v>59396.7352</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2102</v>
+        <v>13.2378</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9107.1042</v>
+        <v>-9143.6149</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0323</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.6955</v>
       </c>
       <c r="C9" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D9" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E9" s="1">
-        <v>5147.6266</v>
+        <v>5157.9436</v>
       </c>
       <c r="F9" s="1">
-        <v>693.7082</v>
+        <v>695.1011</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70499.3198</v>
+        <v>70499.2889</v>
       </c>
       <c r="I9" s="1">
-        <v>3025.9409</v>
+        <v>2748.5752</v>
       </c>
       <c r="J9" s="1">
-        <v>73525.26059999999</v>
+        <v>73247.8642</v>
       </c>
       <c r="K9" s="1">
-        <v>68261.2436</v>
+        <v>68540.3501</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2607</v>
+        <v>13.2883</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9500.680200000001</v>
+        <v>-9538.802600000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0068</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.3398</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E10" s="1">
-        <v>5841.3347</v>
+        <v>5853.0447</v>
       </c>
       <c r="F10" s="1">
-        <v>905.3931</v>
+        <v>907.2140000000001</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77922.2372</v>
+        <v>77922.1691</v>
       </c>
       <c r="I10" s="1">
-        <v>3525.2606</v>
+        <v>3209.7726</v>
       </c>
       <c r="J10" s="1">
-        <v>81447.4979</v>
+        <v>81131.9418</v>
       </c>
       <c r="K10" s="1">
-        <v>77761.9238</v>
+        <v>78079.15270000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3124</v>
+        <v>13.3399</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1389.8592</v>
+        <v>1392.6448</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10687.9036</v>
+        <v>-10733.6313</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0249</v>
+        <v>-0.0254</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.8469</v>
       </c>
       <c r="C11" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D11" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E11" s="1">
-        <v>6746.7278</v>
+        <v>6760.2587</v>
       </c>
       <c r="F11" s="1">
-        <v>999.2572</v>
+        <v>969.2014</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>86674.53780000001</v>
+        <v>86674.6287</v>
       </c>
       <c r="I11" s="1">
-        <v>2837.3571</v>
+        <v>2476.1413</v>
       </c>
       <c r="J11" s="1">
-        <v>89511.8949</v>
+        <v>89150.77009999999</v>
       </c>
       <c r="K11" s="1">
-        <v>89839.6866</v>
+        <v>90205.42879999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.316</v>
+        <v>13.3435</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12837.3571</v>
+        <v>-12476.1413</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0212</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.129</v>
       </c>
       <c r="C12" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D12" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E12" s="1">
-        <v>7745.985</v>
+        <v>7729.46</v>
       </c>
       <c r="F12" s="1">
-        <v>632.4139</v>
+        <v>665.7562</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101697.0373</v>
+        <v>101276.7961</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101697.0373</v>
+        <v>101276.7961</v>
       </c>
       <c r="K12" s="1">
-        <v>102677.0436</v>
+        <v>102681.5701</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2555</v>
+        <v>13.2844</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8302.9627</v>
+        <v>-8758.2227</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.022</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>12.716</v>
       </c>
       <c r="C13" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D13" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E13" s="1">
-        <v>8378.398999999999</v>
+        <v>8395.2163</v>
       </c>
       <c r="F13" s="1">
-        <v>919.8677</v>
+        <v>882.2962</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106539.7212</v>
+        <v>106540.3314</v>
       </c>
       <c r="I13" s="1">
-        <v>1697.0373</v>
+        <v>1241.7773</v>
       </c>
       <c r="J13" s="1">
-        <v>108236.7585</v>
+        <v>107782.1087</v>
       </c>
       <c r="K13" s="1">
-        <v>110980.0063</v>
+        <v>111439.7928</v>
       </c>
       <c r="L13" s="1">
-        <v>13.246</v>
+        <v>13.2742</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2091.416</v>
+        <v>2086.9542</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9605.621300000001</v>
+        <v>-9154.8231</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.031</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.4613</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E14" s="1">
-        <v>9298.266600000001</v>
+        <v>9277.512500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9298.266600000001</v>
+        <v>-9277.512500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115868.49</v>
+        <v>115378.8562</v>
       </c>
       <c r="I14" s="1">
-        <v>2091.416</v>
+        <v>2086.9542</v>
       </c>
       <c r="J14" s="1">
-        <v>117959.9059</v>
+        <v>117465.8104</v>
       </c>
       <c r="K14" s="1">
-        <v>122677.0436</v>
+        <v>122681.5701</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1935</v>
+        <v>13.2235</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115868.49</v>
+        <v>115378.8562</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0023</v>
+        <v>-0.0027</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.4338</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E3" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="F3" s="1">
-        <v>718.1266000000001</v>
+        <v>722.6712</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9647.168900000001</v>
+        <v>-9727.6602</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0403</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>12.9657</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E4" s="1">
-        <v>1492.504</v>
+        <v>1495.4986</v>
       </c>
       <c r="F4" s="1">
-        <v>798.4784</v>
+        <v>790.6848</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19351.3589</v>
+        <v>19351.4526</v>
       </c>
       <c r="I4" s="1">
-        <v>352.8311</v>
+        <v>272.3398</v>
       </c>
       <c r="J4" s="1">
-        <v>19704.19</v>
+        <v>19623.7924</v>
       </c>
       <c r="K4" s="1">
-        <v>19647.1689</v>
+        <v>19727.6602</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1639</v>
+        <v>13.1914</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10143.7492</v>
+        <v>-10063.6764</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0342</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.3568</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E5" s="1">
-        <v>2290.9824</v>
+        <v>2286.1834</v>
       </c>
       <c r="F5" s="1">
-        <v>726.2823</v>
+        <v>737.1249</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30600.1932</v>
+        <v>30475.0533</v>
       </c>
       <c r="I5" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="J5" s="1">
-        <v>30809.2751</v>
+        <v>30683.7167</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.0948</v>
+        <v>13.1223</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9700.808000000001</v>
+        <v>-9865.3842</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0372</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.2487</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E6" s="1">
-        <v>3017.2647</v>
+        <v>3023.3082</v>
       </c>
       <c r="F6" s="1">
-        <v>793.1550999999999</v>
+        <v>779.143</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39974.8349</v>
+        <v>39974.7863</v>
       </c>
       <c r="I6" s="1">
-        <v>508.2739</v>
+        <v>343.2792</v>
       </c>
       <c r="J6" s="1">
-        <v>40483.1088</v>
+        <v>40318.0655</v>
       </c>
       <c r="K6" s="1">
-        <v>39700.808</v>
+        <v>39865.3842</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1579</v>
+        <v>13.186</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10508.2739</v>
+        <v>-10343.2792</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.008</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.3991</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E7" s="1">
-        <v>3810.4198</v>
+        <v>3802.4513</v>
       </c>
       <c r="F7" s="1">
-        <v>723.8414</v>
+        <v>740.8972</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51056.1959</v>
+        <v>50847.5189</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51056.1959</v>
+        <v>50847.5189</v>
       </c>
       <c r="K7" s="1">
-        <v>50209.0819</v>
+        <v>50208.6634</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1768</v>
+        <v>13.2043</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1086.2153</v>
+        <v>1088.391</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8612.607599999999</v>
+        <v>-8858.821</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0114</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.5985</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E8" s="1">
-        <v>4534.2612</v>
+        <v>4543.3485</v>
       </c>
       <c r="F8" s="1">
-        <v>691.2265</v>
+        <v>692.6123</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61659.1505</v>
+        <v>61659.1451</v>
       </c>
       <c r="I8" s="1">
-        <v>1387.3924</v>
+        <v>1141.179</v>
       </c>
       <c r="J8" s="1">
-        <v>63046.5429</v>
+        <v>62800.3241</v>
       </c>
       <c r="K8" s="1">
-        <v>59907.9048</v>
+        <v>60155.8754</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2123</v>
+        <v>13.2404</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9399.643400000001</v>
+        <v>-9437.3269</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0326</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.6955</v>
       </c>
       <c r="C9" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D9" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E9" s="1">
-        <v>5225.4877</v>
+        <v>5235.9607</v>
       </c>
       <c r="F9" s="1">
-        <v>719.0991</v>
+        <v>720.5429</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71565.66620000001</v>
+        <v>71565.6349</v>
       </c>
       <c r="I9" s="1">
-        <v>1987.749</v>
+        <v>1703.8521</v>
       </c>
       <c r="J9" s="1">
-        <v>73553.4152</v>
+        <v>73269.48699999999</v>
       </c>
       <c r="K9" s="1">
-        <v>69307.5482</v>
+        <v>69593.2023</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2634</v>
+        <v>13.2914</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9848.421700000001</v>
+        <v>-9887.938700000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0069</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.3398</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E10" s="1">
-        <v>5944.5868</v>
+        <v>5956.5037</v>
       </c>
       <c r="F10" s="1">
-        <v>910.0082</v>
+        <v>883.9946</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79299.5983</v>
+        <v>79299.52899999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2139.3274</v>
+        <v>1815.9134</v>
       </c>
       <c r="J10" s="1">
-        <v>81438.92570000001</v>
+        <v>81115.4424</v>
       </c>
       <c r="K10" s="1">
-        <v>79155.96980000001</v>
+        <v>79481.141</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3156</v>
+        <v>13.3436</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1410.8817</v>
+        <v>1413.7094</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10728.4457</v>
+        <v>-10402.204</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0253</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.8469</v>
       </c>
       <c r="C11" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D11" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E11" s="1">
-        <v>6854.5949</v>
+        <v>6840.4982</v>
       </c>
       <c r="F11" s="1">
-        <v>888.2206</v>
+        <v>886.667</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88060.29580000001</v>
+        <v>87703.39599999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1410.8817</v>
+        <v>1413.7094</v>
       </c>
       <c r="J11" s="1">
-        <v>89471.17750000001</v>
+        <v>89117.1054</v>
       </c>
       <c r="K11" s="1">
-        <v>91295.2972</v>
+        <v>91297.05439999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3188</v>
+        <v>13.3466</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11410.8817</v>
+        <v>-11413.7094</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0215</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.129</v>
       </c>
       <c r="C12" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D12" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E12" s="1">
-        <v>7742.8156</v>
+        <v>7727.1652</v>
       </c>
       <c r="F12" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101655.4258</v>
+        <v>101246.7278</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101655.4258</v>
+        <v>101246.7278</v>
       </c>
       <c r="K12" s="1">
-        <v>102706.1789</v>
+        <v>102710.7638</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2647</v>
+        <v>13.2922</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>12.716</v>
       </c>
       <c r="C13" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D13" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E13" s="1">
-        <v>8504.4882</v>
+        <v>8487.3151</v>
       </c>
       <c r="F13" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108143.0722</v>
+        <v>107709.1213</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108143.0722</v>
+        <v>107709.1213</v>
       </c>
       <c r="K13" s="1">
-        <v>112706.1789</v>
+        <v>112710.7638</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2526</v>
+        <v>13.2799</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2090.5602</v>
+        <v>2086.3346</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7909.4398</v>
+        <v>-7913.6654</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.4613</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E14" s="1">
-        <v>9290.898999999999</v>
+        <v>9272.152099999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9290.898999999999</v>
+        <v>-9272.152099999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115776.6802</v>
+        <v>115312.1921</v>
       </c>
       <c r="I14" s="1">
-        <v>2090.5602</v>
+        <v>2086.3346</v>
       </c>
       <c r="J14" s="1">
-        <v>117867.2404</v>
+        <v>117398.5267</v>
       </c>
       <c r="K14" s="1">
-        <v>122706.1789</v>
+        <v>122710.7638</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2071</v>
+        <v>13.2343</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115776.6802</v>
+        <v>115312.1921</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0023</v>
+        <v>-0.0026</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2922,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>12.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.4338</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E3" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="F3" s="1">
-        <v>721.8484999999999</v>
+        <v>726.4006000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9697.168900000001</v>
+        <v>-9777.8608</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0403</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>12.9657</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.2259</v>
+        <v>1499.228</v>
       </c>
       <c r="F4" s="1">
-        <v>794.6221</v>
+        <v>786.8208</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19399.6166</v>
+        <v>19399.7106</v>
       </c>
       <c r="I4" s="1">
-        <v>302.8311</v>
+        <v>222.1392</v>
       </c>
       <c r="J4" s="1">
-        <v>19702.4478</v>
+        <v>19621.8498</v>
       </c>
       <c r="K4" s="1">
-        <v>19697.1689</v>
+        <v>19777.8608</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1646</v>
+        <v>13.192</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10093.7492</v>
+        <v>-10013.4758</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0343</v>
+        <v>-0.0363</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.3568</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E5" s="1">
-        <v>2290.848</v>
+        <v>2286.0488</v>
       </c>
       <c r="F5" s="1">
-        <v>749.1024</v>
+        <v>759.9906999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30598.3984</v>
+        <v>30473.2586</v>
       </c>
       <c r="I5" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="J5" s="1">
-        <v>30807.4803</v>
+        <v>30681.922</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.0956</v>
+        <v>13.1231</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10005.6116</v>
+        <v>-10171.4109</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0372</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.2487</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E6" s="1">
-        <v>3039.9504</v>
+        <v>3046.0394</v>
       </c>
       <c r="F6" s="1">
-        <v>770.1488000000001</v>
+        <v>756.0905</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40275.3914</v>
+        <v>40275.3423</v>
       </c>
       <c r="I6" s="1">
-        <v>203.4703</v>
+        <v>37.2525</v>
       </c>
       <c r="J6" s="1">
-        <v>40478.8617</v>
+        <v>40312.5948</v>
       </c>
       <c r="K6" s="1">
-        <v>40005.6116</v>
+        <v>40171.4109</v>
       </c>
       <c r="L6" s="1">
-        <v>13.16</v>
+        <v>13.1881</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10203.4703</v>
+        <v>-10037.2525</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0081</v>
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.3991</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E7" s="1">
-        <v>3810.0992</v>
+        <v>3802.1299</v>
       </c>
       <c r="F7" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51051.9006</v>
+        <v>50843.2217</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51051.9006</v>
+        <v>50843.2217</v>
       </c>
       <c r="K7" s="1">
-        <v>50209.0819</v>
+        <v>50208.6634</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1779</v>
+        <v>13.2054</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1094.3822</v>
+        <v>1096.5742</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8905.6178</v>
+        <v>-8903.425800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0114</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.5985</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E8" s="1">
-        <v>4556.418</v>
+        <v>4546.9589</v>
       </c>
       <c r="F8" s="1">
-        <v>748.2371000000001</v>
+        <v>768.3279</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61960.4503</v>
+        <v>61708.1437</v>
       </c>
       <c r="I8" s="1">
-        <v>1094.3822</v>
+        <v>1096.5742</v>
       </c>
       <c r="J8" s="1">
-        <v>63054.8325</v>
+        <v>62804.7179</v>
       </c>
       <c r="K8" s="1">
-        <v>60209.0819</v>
+        <v>60208.6634</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2141</v>
+        <v>13.2415</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10174.9018</v>
+        <v>-10469.0054</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0328</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.6955</v>
       </c>
       <c r="C9" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D9" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E9" s="1">
-        <v>5304.6551</v>
+        <v>5315.2868</v>
       </c>
       <c r="F9" s="1">
-        <v>745.2668</v>
+        <v>746.7632</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72649.90360000001</v>
+        <v>72649.8719</v>
       </c>
       <c r="I9" s="1">
-        <v>919.4804</v>
+        <v>627.5688</v>
       </c>
       <c r="J9" s="1">
-        <v>73569.38400000001</v>
+        <v>73277.44070000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70383.9837</v>
+        <v>70677.6688</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2683</v>
+        <v>13.2971</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10206.802</v>
+        <v>-10247.7564</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.3398</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E10" s="1">
-        <v>6049.9219</v>
+        <v>6062.05</v>
       </c>
       <c r="F10" s="1">
-        <v>803.0614</v>
+        <v>776.5543</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80704.7484</v>
+        <v>80704.6779</v>
       </c>
       <c r="I10" s="1">
-        <v>712.6784</v>
+        <v>379.8124</v>
       </c>
       <c r="J10" s="1">
-        <v>81417.4268</v>
+        <v>81084.4903</v>
       </c>
       <c r="K10" s="1">
-        <v>80590.7856</v>
+        <v>80925.4252</v>
       </c>
       <c r="L10" s="1">
-        <v>13.321</v>
+        <v>13.3495</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1432.2569</v>
+        <v>1435.1274</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9280.4215</v>
+        <v>-8944.684999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0258</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.8469</v>
       </c>
       <c r="C11" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D11" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E11" s="1">
-        <v>6852.9833</v>
+        <v>6838.6043</v>
       </c>
       <c r="F11" s="1">
-        <v>889.8845</v>
+        <v>888.3308</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88039.5913</v>
+        <v>87679.11289999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1432.2569</v>
+        <v>1435.1274</v>
       </c>
       <c r="J11" s="1">
-        <v>89471.84819999999</v>
+        <v>89114.2403</v>
       </c>
       <c r="K11" s="1">
-        <v>91303.4641</v>
+        <v>91305.23759999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3232</v>
+        <v>13.3514</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11432.2569</v>
+        <v>-11435.1274</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0213</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.129</v>
       </c>
       <c r="C12" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D12" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E12" s="1">
-        <v>7742.8678</v>
+        <v>7726.9351</v>
       </c>
       <c r="F12" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101656.1112</v>
+        <v>101243.7123</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101656.1112</v>
+        <v>101243.7123</v>
       </c>
       <c r="K12" s="1">
-        <v>102735.7209</v>
+        <v>102740.365</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2684</v>
+        <v>13.2964</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>12.716</v>
       </c>
       <c r="C13" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D13" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E13" s="1">
-        <v>8504.5404</v>
+        <v>8487.084999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>108143.736</v>
+        <v>107706.2007</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108143.736</v>
+        <v>107706.2007</v>
       </c>
       <c r="K13" s="1">
-        <v>112735.7209</v>
+        <v>112740.365</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2559</v>
+        <v>13.2838</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2090.5743</v>
+        <v>2086.2725</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7909.4257</v>
+        <v>-7913.7275</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.4613</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E14" s="1">
-        <v>9290.9512</v>
+        <v>9271.921899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9290.9512</v>
+        <v>-9271.921899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115777.3307</v>
+        <v>115309.33</v>
       </c>
       <c r="I14" s="1">
-        <v>2090.5743</v>
+        <v>2086.2725</v>
       </c>
       <c r="J14" s="1">
-        <v>117867.905</v>
+        <v>117395.6024</v>
       </c>
       <c r="K14" s="1">
-        <v>122735.7209</v>
+        <v>122740.365</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2102</v>
+        <v>13.2379</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115777.3307</v>
+        <v>115309.33</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0023</v>
+        <v>-0.0026</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.9136</v>
       </c>
       <c r="C2" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D2" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.4338</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D3" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E3" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="F3" s="1">
-        <v>725.5705</v>
+        <v>730.13</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10402.8311</v>
+        <v>10361.2195</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9747.168900000001</v>
+        <v>-9828.0615</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0403</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>12.9657</v>
       </c>
       <c r="C4" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D4" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E4" s="1">
-        <v>1499.9479</v>
+        <v>1502.9574</v>
       </c>
       <c r="F4" s="1">
-        <v>790.7657</v>
+        <v>782.9567</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19447.8744</v>
+        <v>19447.9686</v>
       </c>
       <c r="I4" s="1">
-        <v>252.8311</v>
+        <v>171.9385</v>
       </c>
       <c r="J4" s="1">
-        <v>19700.7055</v>
+        <v>19619.9071</v>
       </c>
       <c r="K4" s="1">
-        <v>19747.1689</v>
+        <v>19828.0615</v>
       </c>
       <c r="L4" s="1">
-        <v>13.1652</v>
+        <v>13.1927</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10043.7492</v>
+        <v>-9963.275100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0344</v>
+        <v>-0.0364</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.3568</v>
       </c>
       <c r="C5" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D5" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E5" s="1">
-        <v>2290.7136</v>
+        <v>2285.9141</v>
       </c>
       <c r="F5" s="1">
-        <v>764.3359</v>
+        <v>762.7741</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30596.6036</v>
+        <v>30471.4639</v>
       </c>
       <c r="I5" s="1">
-        <v>209.0819</v>
+        <v>208.6634</v>
       </c>
       <c r="J5" s="1">
-        <v>30805.6855</v>
+        <v>30680.1273</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.0964</v>
+        <v>13.1239</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10209.0819</v>
+        <v>-10208.6634</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0372</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.2487</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E6" s="1">
-        <v>3055.0495</v>
+        <v>3048.6882</v>
       </c>
       <c r="F6" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40475.4347</v>
+        <v>40310.3655</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40475.4347</v>
+        <v>40310.3655</v>
       </c>
       <c r="K6" s="1">
-        <v>40209.0819</v>
+        <v>40208.6634</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1615</v>
+        <v>13.1888</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0081</v>
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.3991</v>
       </c>
       <c r="C7" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D7" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E7" s="1">
-        <v>3809.8406</v>
+        <v>3801.9725</v>
       </c>
       <c r="F7" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51048.4347</v>
+        <v>50841.1175</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51048.4347</v>
+        <v>50841.1175</v>
       </c>
       <c r="K7" s="1">
-        <v>50209.0819</v>
+        <v>50208.6634</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1788</v>
+        <v>13.206</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1099.8178</v>
+        <v>1097.5278</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8900.182199999999</v>
+        <v>-8902.4722</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0114</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.5985</v>
       </c>
       <c r="C8" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D8" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E8" s="1">
-        <v>4556.1593</v>
+        <v>4546.8016</v>
       </c>
       <c r="F8" s="1">
-        <v>816.2531</v>
+        <v>814.4556</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61956.9328</v>
+        <v>61706.0081</v>
       </c>
       <c r="I8" s="1">
-        <v>1099.8178</v>
+        <v>1097.5278</v>
       </c>
       <c r="J8" s="1">
-        <v>63056.7507</v>
+        <v>62803.5359</v>
       </c>
       <c r="K8" s="1">
-        <v>60209.0819</v>
+        <v>60208.6634</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2149</v>
+        <v>13.242</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11099.8178</v>
+        <v>-11097.5278</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0329</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.6955</v>
       </c>
       <c r="C9" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D9" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E9" s="1">
-        <v>5372.4124</v>
+        <v>5361.2572</v>
       </c>
       <c r="F9" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73577.8747</v>
+        <v>73278.1992</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73577.8747</v>
+        <v>73278.1992</v>
       </c>
       <c r="K9" s="1">
-        <v>71308.89969999999</v>
+        <v>71306.1912</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2732</v>
+        <v>13.3003</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0071</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.3398</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E10" s="1">
-        <v>6102.5793</v>
+        <v>6089.9661</v>
       </c>
       <c r="F10" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81407.1872</v>
+        <v>81076.32799999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>81407.1872</v>
+        <v>81076.32799999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81308.89969999999</v>
+        <v>81306.1912</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3237</v>
+        <v>13.3508</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1450.5514</v>
+        <v>1447.5394</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8549.4486</v>
+        <v>-8552.4606</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.026</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.8469</v>
       </c>
       <c r="C11" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D11" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E11" s="1">
-        <v>6852.2157</v>
+        <v>6838.1051</v>
       </c>
       <c r="F11" s="1">
-        <v>891.3085</v>
+        <v>889.295</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>88029.7301</v>
+        <v>87672.7135</v>
       </c>
       <c r="I11" s="1">
-        <v>1450.5514</v>
+        <v>1447.5394</v>
       </c>
       <c r="J11" s="1">
-        <v>89480.2815</v>
+        <v>89120.25290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91308.89969999999</v>
+        <v>91306.1912</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3255</v>
+        <v>13.3526</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11450.5514</v>
+        <v>-11447.5394</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0211</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.129</v>
       </c>
       <c r="C12" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D12" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E12" s="1">
-        <v>7743.5242</v>
+        <v>7727.4002</v>
       </c>
       <c r="F12" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101664.7297</v>
+        <v>101249.8063</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101664.7297</v>
+        <v>101249.8063</v>
       </c>
       <c r="K12" s="1">
-        <v>102759.4511</v>
+        <v>102753.7306</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2704</v>
+        <v>13.2973</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>12.716</v>
       </c>
       <c r="C13" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D13" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E13" s="1">
-        <v>8505.196900000001</v>
+        <v>8487.5501</v>
       </c>
       <c r="F13" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>108152.0833</v>
+        <v>107712.103</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108152.0833</v>
+        <v>107712.103</v>
       </c>
       <c r="K13" s="1">
-        <v>112759.4511</v>
+        <v>112753.7306</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2577</v>
+        <v>13.2846</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2090.7515</v>
+        <v>2086.398</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7909.2485</v>
+        <v>-7913.602</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.4613</v>
       </c>
       <c r="C14" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D14" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E14" s="1">
-        <v>9291.6077</v>
+        <v>9272.387000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9291.6077</v>
+        <v>-9272.387000000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115785.5109</v>
+        <v>115315.114</v>
       </c>
       <c r="I14" s="1">
-        <v>2090.7515</v>
+        <v>2086.398</v>
       </c>
       <c r="J14" s="1">
-        <v>117876.2624</v>
+        <v>117401.5121</v>
       </c>
       <c r="K14" s="1">
-        <v>122759.4511</v>
+        <v>122753.7306</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2119</v>
+        <v>13.2386</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115785.5109</v>
+        <v>115315.114</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0023</v>
+        <v>-0.0026</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2099</v>
+        <v>13.2364</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1935</v>
+        <v>13.2235</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2071</v>
+        <v>13.2343</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2102</v>
+        <v>13.2379</v>
       </c>
       <c r="G3" s="1">
-        <v>13.2119</v>
+        <v>13.2386</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0316</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0268</v>
+        <v>0.0143</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0284</v>
+        <v>0.0157</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0275</v>
+        <v>0.015</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0274</v>
+        <v>0.0149</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0275</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0897</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0896</v>
+        <v>0.0883</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08890000000000001</v>
+        <v>0.0876</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08939999999999999</v>
+        <v>0.0882</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0896</v>
+        <v>0.0883</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0897</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.5787</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0718</v>
+        <v>-0.06809999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>0.09039999999999999</v>
+        <v>-0.0529</v>
       </c>
       <c r="E6" s="4">
-        <v>0.08</v>
+        <v>-0.0604</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0794</v>
+        <v>-0.0617</v>
       </c>
       <c r="G6" s="4">
-        <v>0.07969999999999999</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0335</v>
+        <v>-0.0407</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0319</v>
+        <v>-0.0395</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0331</v>
+        <v>-0.0402</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0329</v>
+        <v>-0.0401</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0327</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4795.5141</v>
+        <v>4785.8584</v>
       </c>
       <c r="D8" s="1">
-        <v>4768.4596</v>
+        <v>4768.5243</v>
       </c>
       <c r="E8" s="1">
-        <v>4796.7391</v>
+        <v>4797.0984</v>
       </c>
       <c r="F8" s="1">
-        <v>4826.2952</v>
+        <v>4826.6375</v>
       </c>
       <c r="G8" s="1">
-        <v>4850.2026</v>
+        <v>4840.1286</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P61_KFSDIV.xlsx
+++ b/output/1Y_P61_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9136</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.4338</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9657</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3568</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2487</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3991</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5985</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.6955</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3398</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.8469</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.129</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.716</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4613</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9136</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.4338</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9657</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3568</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2487</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3991</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5985</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.6955</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3398</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.8469</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.129</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.716</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4613</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9136</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.4338</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9657</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3568</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2487</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3991</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5985</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.6955</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3398</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.8469</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.129</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.716</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4613</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9136</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.4338</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9657</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3568</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2487</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3991</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5985</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.6955</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3398</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.8469</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.129</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.716</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4613</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.9136</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.4338</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9657</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3568</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2487</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3991</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5985</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.6955</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.3398</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.8469</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.129</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.716</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4613</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5738.9759</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9581</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9584</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9582000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
